--- a/src/Excel/entregable1/CambioTasaCTS.xlsx
+++ b/src/Excel/entregable1/CambioTasaCTS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDAABC7-FBFF-421A-9E47-351D21A08656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1ECB62-53A3-489E-81FA-83C6D7DBB45D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CambioTasaCTS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>usuario</t>
   </si>
@@ -45,9 +45,6 @@
     <t>123456</t>
   </si>
   <si>
-    <t>1008999577</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -66,19 +63,13 @@
     <t/>
   </si>
   <si>
-    <t>6 mar. 2023, 11:05:48</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 12:04:45</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 13:36:48</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 15:00:06</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 15:01:59</t>
+    <t>20 abr. 2023, 21:51:29</t>
+  </si>
+  <si>
+    <t>1007906753</t>
+  </si>
+  <si>
+    <t>20 abr. 2023, 21:57:02</t>
   </si>
 </sst>
 </file>
@@ -415,7 +406,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -440,13 +431,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -457,19 +448,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CambioTasaCTS.xlsx
+++ b/src/Excel/entregable1/CambioTasaCTS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>20 abr. 2023, 21:57:02</t>
+  </si>
+  <si>
+    <t>24 abr. 2023, 11:28:06</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CambioTasaCTS.xlsx
+++ b/src/Excel/entregable1/CambioTasaCTS.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1ECB62-53A3-489E-81FA-83C6D7DBB45D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311938C7-AD40-49CA-B08A-8DA205861974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>usuario</t>
   </si>
@@ -63,23 +63,16 @@
     <t/>
   </si>
   <si>
-    <t>20 abr. 2023, 21:51:29</t>
-  </si>
-  <si>
-    <t>1007906753</t>
-  </si>
-  <si>
-    <t>20 abr. 2023, 21:57:02</t>
-  </si>
-  <si>
-    <t>24 abr. 2023, 11:28:06</t>
+    <t>24 abr. 2023, 19:30:53</t>
+  </si>
+  <si>
+    <t>1001568627</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,15 +402,15 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -463,7 +456,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CambioTasaCTS.xlsx
+++ b/src/Excel/entregable1/CambioTasaCTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311938C7-AD40-49CA-B08A-8DA205861974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27882E9-3341-40BC-963F-DDCC06BC8EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>123456</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -60,13 +57,16 @@
     <t>FAILED</t>
   </si>
   <si>
+    <t>7.10</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>24 abr. 2023, 19:30:53</t>
-  </si>
-  <si>
-    <t>1001568627</t>
+    <t>2 may. 2023, 23:53:26</t>
+  </si>
+  <si>
+    <t>1001710172</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -427,13 +427,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -447,10 +447,10 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>

--- a/src/Excel/entregable1/CambioTasaCTS.xlsx
+++ b/src/Excel/entregable1/CambioTasaCTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27882E9-3341-40BC-963F-DDCC06BC8EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239A04C1-8BFB-4924-A4D6-0B8FF86405F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -36,9 +36,6 @@
     <t>cuenta</t>
   </si>
   <si>
-    <t>fijo</t>
-  </si>
-  <si>
     <t>SCISNEROSCSUP1</t>
   </si>
   <si>
@@ -67,6 +64,15 @@
   </si>
   <si>
     <t>1001710172</t>
+  </si>
+  <si>
+    <t>usuarioAp</t>
+  </si>
+  <si>
+    <t>SCISNEROSC1</t>
+  </si>
+  <si>
+    <t>tasa</t>
   </si>
 </sst>
 </file>
@@ -399,21 +405,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -424,39 +432,45 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CambioTasaCTS.xlsx
+++ b/src/Excel/entregable1/CambioTasaCTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239A04C1-8BFB-4924-A4D6-0B8FF86405F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDB934C-C990-4791-A9AF-AD941AED8F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t/>
   </si>
   <si>
-    <t>2 may. 2023, 23:53:26</t>
-  </si>
-  <si>
     <t>1001710172</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>tasa</t>
+  </si>
+  <si>
+    <t>19 may. 2023, 10:51:41</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -416,9 +416,9 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.90625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -432,10 +432,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -449,13 +449,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -470,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CambioTasaCTS.xlsx
+++ b/src/Excel/entregable1/CambioTasaCTS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>usuario</t>
   </si>
@@ -73,12 +73,19 @@
   </si>
   <si>
     <t>19 may. 2023, 10:51:41</t>
+  </si>
+  <si>
+    <t>24 may. 2023, 11:51:57</t>
+  </si>
+  <si>
+    <t>24 may. 2023, 11:53:27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,12 +420,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -470,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CambioTasaCTS.xlsx
+++ b/src/Excel/entregable1/CambioTasaCTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDB934C-C990-4791-A9AF-AD941AED8F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601B73F6-7364-484B-B9C7-41A2BC523A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>usuario</t>
   </si>
@@ -57,28 +57,31 @@
     <t>7.10</t>
   </si>
   <si>
+    <t>usuarioAp</t>
+  </si>
+  <si>
+    <t>SCISNEROSC1</t>
+  </si>
+  <si>
+    <t>tasa</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>1001710172</t>
-  </si>
-  <si>
-    <t>usuarioAp</t>
-  </si>
-  <si>
-    <t>SCISNEROSC1</t>
-  </si>
-  <si>
-    <t>tasa</t>
-  </si>
-  <si>
-    <t>19 may. 2023, 10:51:41</t>
-  </si>
-  <si>
-    <t>24 may. 2023, 11:51:57</t>
-  </si>
-  <si>
-    <t>24 may. 2023, 11:53:27</t>
+    <t>24 may. 2023, 16:52:48</t>
+  </si>
+  <si>
+    <t>1001615285</t>
+  </si>
+  <si>
+    <t>AAACT23144M3Z5G6H</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>24 may. 2023, 16:56:24</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,10 +442,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -456,13 +459,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -471,13 +474,13 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CambioTasaCTS.xlsx
+++ b/src/Excel/entregable1/CambioTasaCTS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>usuario</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>24 may. 2023, 16:56:24</t>
+  </si>
+  <si>
+    <t>AAACT23146498KPW9</t>
+  </si>
+  <si>
+    <t>26 may. 2023, 09:23:01</t>
   </si>
 </sst>
 </file>
@@ -477,10 +483,10 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CambioTasaCTS.xlsx
+++ b/src/Excel/entregable1/CambioTasaCTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601B73F6-7364-484B-B9C7-41A2BC523A2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC75318-F934-4CBD-B2F1-FC8EF12538A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>usuario</t>
   </si>
@@ -51,43 +51,37 @@
     <t>Fecha</t>
   </si>
   <si>
+    <t>7.10</t>
+  </si>
+  <si>
+    <t>usuarioAp</t>
+  </si>
+  <si>
+    <t>tasa</t>
+  </si>
+  <si>
+    <t>jtangt</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>7.10</t>
-  </si>
-  <si>
-    <t>usuarioAp</t>
-  </si>
-  <si>
-    <t>SCISNEROSC1</t>
-  </si>
-  <si>
-    <t>tasa</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>24 may. 2023, 16:52:48</t>
-  </si>
-  <si>
-    <t>1001615285</t>
-  </si>
-  <si>
-    <t>AAACT23144M3Z5G6H</t>
+    <t>3 jul. 2023, 11:15:56</t>
+  </si>
+  <si>
+    <t>AAACT231844ZPYK7L</t>
+  </si>
+  <si>
+    <t>1001678945</t>
+  </si>
+  <si>
+    <t>AAACT2318450ZF4MF</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>24 may. 2023, 16:56:24</t>
-  </si>
-  <si>
-    <t>AAACT23146498KPW9</t>
-  </si>
-  <si>
-    <t>26 may. 2023, 09:23:01</t>
+    <t>3 jul. 2023, 11:22:05</t>
   </si>
 </sst>
 </file>
@@ -136,11 +130,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +421,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,7 +430,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.36328125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="18.90625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -448,10 +445,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -464,7 +461,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -474,7 +471,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -483,10 +480,10 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
